--- a/output_analysis.xlsx
+++ b/output_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hg/pwr/7sem/zwsisk/proj-wojcik/page-replacement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEB148-D94F-574C-B132-9EBE2BFD28B0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE445632-A6E8-044C-B2AA-D6C970F42297}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BF315AA1-11C1-4F4D-A6A8-88A9E7B68DA2}"/>
   </bookViews>
@@ -25,6 +25,38 @@
     <definedName name="_64_frames" localSheetId="0">Arkusz1!$A$10:$H$13</definedName>
     <definedName name="_64_frames_1" localSheetId="0">Arkusz1!$A$22:$H$25</definedName>
     <definedName name="_64_frames_2" localSheetId="0">Arkusz1!$A$34:$H$37</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">(Arkusz1!$C$4,Arkusz1!$C$8,Arkusz1!$C$12)</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">(Arkusz1!$E$4,Arkusz1!$E$8,Arkusz1!$E$12)</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">(Arkusz1!$C$4,Arkusz1!$C$8,Arkusz1!$C$12)</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(Arkusz1!$C$4,Arkusz1!$C$8,Arkusz1!$C$12)</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">(Arkusz1!$E$4,Arkusz1!$E$8,Arkusz1!$E$12)</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">(Arkusz1!$C$4,Arkusz1!$C$8,Arkusz1!$C$12)</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">(Arkusz1!$E$4,Arkusz1!$E$8,Arkusz1!$E$12)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">(Arkusz1!$E$4,Arkusz1!$E$8,Arkusz1!$E$12)</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -376,6 +408,4419 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>100000.trace</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Clock</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>89458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89AF-184B-BF1E-8A1E8CF4C13D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LRU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>89528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-89AF-184B-BF1E-8A1E8CF4C13D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aging</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$4,Arkusz1!$E$8,Arkusz1!$E$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>89625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-89AF-184B-BF1E-8A1E8CF4C13D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Opt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$5,Arkusz1!$E$9,Arkusz1!$E$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>71564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-89AF-184B-BF1E-8A1E8CF4C13D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1068182079"/>
+        <c:axId val="1067950927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1068182079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ramki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067950927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1067950927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błędy stron</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1068182079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>200000.trace</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Clock</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$14,Arkusz1!$E$18,Arkusz1!$E$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>223409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4245-6643-A247-AD91DE18CA30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LRU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$15,Arkusz1!$E$19,Arkusz1!$E$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>223394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4245-6643-A247-AD91DE18CA30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aging</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$16,Arkusz1!$E$20,Arkusz1!$E$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>223413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>197050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4245-6643-A247-AD91DE18CA30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Opt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$17,Arkusz1!$E$21,Arkusz1!$E$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>178583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4245-6643-A247-AD91DE18CA30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1068182079"/>
+        <c:axId val="1067950927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1068182079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ramki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067950927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1067950927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błędy stron</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1068182079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>500000.trace</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Clock</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$26,Arkusz1!$E$30,Arkusz1!$E$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>447049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>288494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A6B-9249-8062-EDBC08253925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LRU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$27,Arkusz1!$E$31,Arkusz1!$E$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>447339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>287688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A6B-9249-8062-EDBC08253925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Aging</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$28,Arkusz1!$E$32,Arkusz1!$E$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>447146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>288347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A6B-9249-8062-EDBC08253925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Opt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$E$29,Arkusz1!$E$33,Arkusz1!$E$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>357466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1A6B-9249-8062-EDBC08253925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1068182079"/>
+        <c:axId val="1067950927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1068182079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ramki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067950927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1067950927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błędy stron</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1068182079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>192424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12828</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3B5B16-57D8-7E43-BCF8-9F37350EE713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1423939</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>808180</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38485</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37567F51-552F-E54C-8A12-831F8E0D5304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>821009</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25657</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27D4DB8-2B40-E047-A723-70886339A69C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,8 +5158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFDEB2E-202E-1346-AE0D-E25D4AD48539}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1695,5 +6140,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output_analysis.xlsx
+++ b/output_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hg/pwr/7sem/zwsisk/proj-wojcik/page-replacement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE445632-A6E8-044C-B2AA-D6C970F42297}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A3E666-E63D-724D-8D70-14F36C1F7843}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BF315AA1-11C1-4F4D-A6A8-88A9E7B68DA2}"/>
   </bookViews>
@@ -25,40 +25,13 @@
     <definedName name="_64_frames" localSheetId="0">Arkusz1!$A$10:$H$13</definedName>
     <definedName name="_64_frames_1" localSheetId="0">Arkusz1!$A$22:$H$25</definedName>
     <definedName name="_64_frames_2" localSheetId="0">Arkusz1!$A$34:$H$37</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">(Arkusz1!$C$4,Arkusz1!$C$8,Arkusz1!$C$12)</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">(Arkusz1!$E$4,Arkusz1!$E$8,Arkusz1!$E$12)</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">(Arkusz1!$C$4,Arkusz1!$C$8,Arkusz1!$C$12)</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">(Arkusz1!$C$4,Arkusz1!$C$8,Arkusz1!$C$12)</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">(Arkusz1!$E$4,Arkusz1!$E$8,Arkusz1!$E$12)</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">(Arkusz1!$C$4,Arkusz1!$C$8,Arkusz1!$C$12)</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">(Arkusz1!$E$4,Arkusz1!$E$8,Arkusz1!$E$12)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">(Arkusz1!$E$4,Arkusz1!$E$8,Arkusz1!$E$12)</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">(Arkusz1!$C$2,Arkusz1!$C$6,Arkusz1!$C$10)</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">(Arkusz1!$C$3,Arkusz1!$C$7,Arkusz1!$C$11)</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">(Arkusz1!$C$5,Arkusz1!$C$9,Arkusz1!$C$13)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(Arkusz1!$E$2,Arkusz1!$E$6,Arkusz1!$E$10)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(Arkusz1!$E$3,Arkusz1!$E$7,Arkusz1!$E$11)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">(Arkusz1!$E$4,Arkusz1!$E$8,Arkusz1!$E$12)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">(Arkusz1!$E$5,Arkusz1!$E$9,Arkusz1!$E$13)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -234,127 +207,127 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>3618.7580000000003</t>
-  </si>
-  <si>
     <t>LRU</t>
-  </si>
-  <si>
-    <t>3218.9429999999998</t>
   </si>
   <si>
     <t>Aging</t>
   </si>
   <si>
-    <t>4455.276</t>
-  </si>
-  <si>
     <t>Opt</t>
-  </si>
-  <si>
-    <t>4749.428</t>
-  </si>
-  <si>
-    <t>4270.931</t>
-  </si>
-  <si>
-    <t>3942.797</t>
-  </si>
-  <si>
-    <t>9028.132</t>
-  </si>
-  <si>
-    <t>6271.232999999999</t>
-  </si>
-  <si>
-    <t>4032.716</t>
-  </si>
-  <si>
-    <t>3762.07</t>
-  </si>
-  <si>
-    <t>9889.175</t>
-  </si>
-  <si>
-    <t>14060.516</t>
   </si>
   <si>
     <t>250000.trace</t>
   </si>
   <si>
-    <t>28564.699</t>
-  </si>
-  <si>
-    <t>21941.008</t>
-  </si>
-  <si>
-    <t>30218.762000000002</t>
-  </si>
-  <si>
-    <t>24819.287</t>
-  </si>
-  <si>
-    <t>20013.468</t>
-  </si>
-  <si>
-    <t>24847.459</t>
-  </si>
-  <si>
-    <t>27761.857</t>
-  </si>
-  <si>
-    <t>29115.412</t>
-  </si>
-  <si>
-    <t>19444.458000000002</t>
-  </si>
-  <si>
-    <t>20031.579</t>
-  </si>
-  <si>
-    <t>32379.936999999998</t>
-  </si>
-  <si>
-    <t>37406.73</t>
-  </si>
-  <si>
     <t>500000.trace</t>
   </si>
   <si>
-    <t>83822.041</t>
+    <t>5590.407</t>
   </si>
   <si>
-    <t>90194.316</t>
+    <t>5029.594</t>
   </si>
   <si>
-    <t>96738.89099999999</t>
+    <t>5989.652</t>
   </si>
   <si>
-    <t>105260.10800000001</t>
+    <t>5543.490000000001</t>
   </si>
   <si>
-    <t>94534.673</t>
+    <t>6081.44</t>
   </si>
   <si>
-    <t>93126.344</t>
+    <t>5812.051</t>
   </si>
   <si>
-    <t>118680.61899999999</t>
+    <t>6558.307</t>
   </si>
   <si>
-    <t>116023.39499999999</t>
+    <t>6421.168</t>
   </si>
   <si>
-    <t>98175.968</t>
+    <t>8073.662</t>
   </si>
   <si>
-    <t>90143.179</t>
+    <t>7359.174</t>
   </si>
   <si>
-    <t>115627.414</t>
+    <t>8155.441</t>
   </si>
   <si>
-    <t>104800.401</t>
+    <t>9272.511</t>
+  </si>
+  <si>
+    <t>21989.618</t>
+  </si>
+  <si>
+    <t>21408.97</t>
+  </si>
+  <si>
+    <t>22749.251</t>
+  </si>
+  <si>
+    <t>23120.566</t>
+  </si>
+  <si>
+    <t>23730.62</t>
+  </si>
+  <si>
+    <t>21721.229</t>
+  </si>
+  <si>
+    <t>23169.274999999998</t>
+  </si>
+  <si>
+    <t>35070.119</t>
+  </si>
+  <si>
+    <t>33288.01700000001</t>
+  </si>
+  <si>
+    <t>37851.0</t>
+  </si>
+  <si>
+    <t>33672.981999999996</t>
+  </si>
+  <si>
+    <t>34910.078</t>
+  </si>
+  <si>
+    <t>119028.64099999999</t>
+  </si>
+  <si>
+    <t>103620.654</t>
+  </si>
+  <si>
+    <t>106452.489</t>
+  </si>
+  <si>
+    <t>111649.847</t>
+  </si>
+  <si>
+    <t>112543.798</t>
+  </si>
+  <si>
+    <t>110485.522</t>
+  </si>
+  <si>
+    <t>117974.187</t>
+  </si>
+  <si>
+    <t>117076.983</t>
+  </si>
+  <si>
+    <t>134732.495</t>
+  </si>
+  <si>
+    <t>113685.66900000001</t>
+  </si>
+  <si>
+    <t>125405.137</t>
+  </si>
+  <si>
+    <t>155711.03</t>
   </si>
 </sst>
 </file>
@@ -617,13 +590,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>89458</c:v>
+                  <c:v>80384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78928</c:v>
+                  <c:v>60645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57494</c:v>
+                  <c:v>21033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,13 +718,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>89528</c:v>
+                  <c:v>80235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78903</c:v>
+                  <c:v>60441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57698</c:v>
+                  <c:v>21115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,13 +846,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>89625</c:v>
+                  <c:v>80200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78826</c:v>
+                  <c:v>60461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57698</c:v>
+                  <c:v>20938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,13 +977,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>71564</c:v>
+                  <c:v>62319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60220</c:v>
+                  <c:v>45665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43118</c:v>
+                  <c:v>16783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,13 +1475,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>223409</c:v>
+                  <c:v>200612</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196960</c:v>
+                  <c:v>151390</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144245</c:v>
+                  <c:v>52811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,13 +1603,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>223394</c:v>
+                  <c:v>200535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196899</c:v>
+                  <c:v>151402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143774</c:v>
+                  <c:v>52478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,13 +1731,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>223413</c:v>
+                  <c:v>200558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197050</c:v>
+                  <c:v>151217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143999</c:v>
+                  <c:v>52660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,13 +1862,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>178583</c:v>
+                  <c:v>155855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150162</c:v>
+                  <c:v>114232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108061</c:v>
+                  <c:v>42043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,13 +2360,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>447049</c:v>
+                  <c:v>401401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>394365</c:v>
+                  <c:v>303013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>288494</c:v>
+                  <c:v>104802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,13 +2488,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>447339</c:v>
+                  <c:v>401518</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>394257</c:v>
+                  <c:v>302279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>287688</c:v>
+                  <c:v>104884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,13 +2616,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>447146</c:v>
+                  <c:v>401501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>394464</c:v>
+                  <c:v>302313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>288347</c:v>
+                  <c:v>104654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,13 +2747,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>357466</c:v>
+                  <c:v>311629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300668</c:v>
+                  <c:v>228492</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215641</c:v>
+                  <c:v>83595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4824,39 +4797,39 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="32_frames_2" connectionId="6" xr16:uid="{E44BAB1C-19D5-FE42-9588-3AD31F0F38AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="64_frames_1" connectionId="8" xr16:uid="{45938206-EDA8-EB45-82EB-45E3BA60BD17}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="64_frames" connectionId="7" xr16:uid="{7CC8E5AE-DA59-5144-B0DC-1C6618DF6F90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="32_frames_1" connectionId="5" xr16:uid="{F9FDFDC6-7B89-6B4E-93B7-0BE9BD3556D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="32_frames" connectionId="4" xr16:uid="{32111927-3001-5C49-9D24-7408F48742E3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="16_frames_2" connectionId="3" xr16:uid="{31BC9DDD-CC44-F142-8D1B-58C40BF76C9B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="64_frames_2" connectionId="9" xr16:uid="{0245FC15-0AC0-C94D-B127-C57DF3B304D1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="32_frames_2" connectionId="6" xr16:uid="{E44BAB1C-19D5-FE42-9588-3AD31F0F38AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="16_frames_2" connectionId="3" xr16:uid="{31BC9DDD-CC44-F142-8D1B-58C40BF76C9B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="64_frames_1" connectionId="8" xr16:uid="{45938206-EDA8-EB45-82EB-45E3BA60BD17}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="32_frames_1" connectionId="5" xr16:uid="{F9FDFDC6-7B89-6B4E-93B7-0BE9BD3556D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="16_frames_1" connectionId="2" xr16:uid="{C7118F06-3309-A945-94F8-CFD3887C3C19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="64_frames" connectionId="7" xr16:uid="{7CC8E5AE-DA59-5144-B0DC-1C6618DF6F90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="32_frames" connectionId="4" xr16:uid="{32111927-3001-5C49-9D24-7408F48742E3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="16_frames" connectionId="1" xr16:uid="{19D71F1A-E0A0-6E4B-954A-5F1F6D2AB544}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="16_frames" connectionId="1" xr16:uid="{19D71F1A-E0A0-6E4B-954A-5F1F6D2AB544}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="16_frames_1" connectionId="2" xr16:uid="{C7118F06-3309-A945-94F8-CFD3887C3C19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5158,8 +5131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFDEB2E-202E-1346-AE0D-E25D4AD48539}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="V61" sqref="V61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5169,9 +5142,9 @@
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5216,21 +5189,21 @@
         <v>100000</v>
       </c>
       <c r="E2">
-        <v>89458</v>
+        <v>80384</v>
       </c>
       <c r="F2">
-        <v>19623</v>
+        <v>13579</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -5242,21 +5215,21 @@
         <v>100000</v>
       </c>
       <c r="E3">
-        <v>89528</v>
+        <v>80235</v>
       </c>
       <c r="F3">
-        <v>24603</v>
+        <v>14344</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5268,21 +5241,21 @@
         <v>100000</v>
       </c>
       <c r="E4">
-        <v>89625</v>
+        <v>80200</v>
       </c>
       <c r="F4">
-        <v>24022</v>
+        <v>14329</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -5294,16 +5267,16 @@
         <v>100000</v>
       </c>
       <c r="E5">
-        <v>71564</v>
+        <v>62319</v>
       </c>
       <c r="F5">
-        <v>22715</v>
+        <v>13813</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5320,21 +5293,21 @@
         <v>100000</v>
       </c>
       <c r="E6">
-        <v>78928</v>
+        <v>60645</v>
       </c>
       <c r="F6">
-        <v>12743</v>
+        <v>11912</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -5346,21 +5319,21 @@
         <v>100000</v>
       </c>
       <c r="E7">
-        <v>78903</v>
+        <v>60441</v>
       </c>
       <c r="F7">
-        <v>24425</v>
+        <v>13578</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -5372,21 +5345,21 @@
         <v>100000</v>
       </c>
       <c r="E8">
-        <v>78826</v>
+        <v>60461</v>
       </c>
       <c r="F8">
-        <v>23158</v>
+        <v>13575</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -5398,16 +5371,16 @@
         <v>100000</v>
       </c>
       <c r="E9">
-        <v>60220</v>
+        <v>45665</v>
       </c>
       <c r="F9">
-        <v>21555</v>
+        <v>12797</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5424,21 +5397,21 @@
         <v>100000</v>
       </c>
       <c r="E10">
-        <v>57494</v>
+        <v>21033</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>7818</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -5450,21 +5423,21 @@
         <v>100000</v>
       </c>
       <c r="E11">
-        <v>57698</v>
+        <v>21115</v>
       </c>
       <c r="F11">
-        <v>23298</v>
+        <v>9604</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -5476,21 +5449,21 @@
         <v>100000</v>
       </c>
       <c r="E12">
-        <v>57698</v>
+        <v>20938</v>
       </c>
       <c r="F12">
-        <v>20917</v>
+        <v>7955</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -5502,16 +5475,16 @@
         <v>100000</v>
       </c>
       <c r="E13">
-        <v>43118</v>
+        <v>16783</v>
       </c>
       <c r="F13">
-        <v>18866</v>
+        <v>8346</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -5519,7 +5492,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -5528,24 +5501,24 @@
         <v>250000</v>
       </c>
       <c r="E14">
-        <v>223409</v>
+        <v>200612</v>
       </c>
       <c r="F14">
-        <v>48901</v>
+        <v>33955</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -5554,24 +5527,24 @@
         <v>250000</v>
       </c>
       <c r="E15">
-        <v>223394</v>
+        <v>200535</v>
       </c>
       <c r="F15">
-        <v>61416</v>
+        <v>36107</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -5580,24 +5553,24 @@
         <v>250000</v>
       </c>
       <c r="E16">
-        <v>223413</v>
+        <v>200558</v>
       </c>
       <c r="F16">
-        <v>59863</v>
+        <v>36080</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -5606,16 +5579,16 @@
         <v>250000</v>
       </c>
       <c r="E17">
-        <v>178583</v>
+        <v>155855</v>
       </c>
       <c r="F17">
-        <v>56690</v>
+        <v>34617</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -5623,7 +5596,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>32</v>
@@ -5632,24 +5605,24 @@
         <v>250000</v>
       </c>
       <c r="E18">
-        <v>196960</v>
+        <v>151390</v>
       </c>
       <c r="F18">
-        <v>31883</v>
+        <v>29856</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>32</v>
@@ -5658,24 +5631,24 @@
         <v>250000</v>
       </c>
       <c r="E19">
-        <v>196899</v>
+        <v>151402</v>
       </c>
       <c r="F19">
-        <v>60928</v>
+        <v>34044</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
         <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
       </c>
       <c r="C20">
         <v>32</v>
@@ -5684,24 +5657,24 @@
         <v>250000</v>
       </c>
       <c r="E20">
-        <v>197050</v>
+        <v>151217</v>
       </c>
       <c r="F20">
-        <v>57763</v>
+        <v>34008</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -5710,16 +5683,16 @@
         <v>250000</v>
       </c>
       <c r="E21">
-        <v>150162</v>
+        <v>114232</v>
       </c>
       <c r="F21">
-        <v>53757</v>
+        <v>31943</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -5727,7 +5700,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>64</v>
@@ -5736,24 +5709,24 @@
         <v>250000</v>
       </c>
       <c r="E22">
-        <v>144245</v>
+        <v>52811</v>
       </c>
       <c r="F22">
-        <v>16</v>
+        <v>19494</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>64</v>
@@ -5762,24 +5735,24 @@
         <v>250000</v>
       </c>
       <c r="E23">
-        <v>143774</v>
+        <v>52478</v>
       </c>
       <c r="F23">
-        <v>58103</v>
+        <v>23864</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
         <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
       </c>
       <c r="C24">
         <v>64</v>
@@ -5788,24 +5761,24 @@
         <v>250000</v>
       </c>
       <c r="E24">
-        <v>143999</v>
+        <v>52660</v>
       </c>
       <c r="F24">
-        <v>52051</v>
+        <v>19951</v>
       </c>
       <c r="G24">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>64</v>
@@ -5814,16 +5787,16 @@
         <v>250000</v>
       </c>
       <c r="E25">
-        <v>108061</v>
+        <v>42043</v>
       </c>
       <c r="F25">
-        <v>47031</v>
+        <v>21003</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -5831,7 +5804,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>16</v>
@@ -5840,10 +5813,10 @@
         <v>500000</v>
       </c>
       <c r="E26">
-        <v>447049</v>
+        <v>401401</v>
       </c>
       <c r="F26">
-        <v>98009</v>
+        <v>67677</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -5854,10 +5827,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>16</v>
@@ -5866,10 +5839,10 @@
         <v>500000</v>
       </c>
       <c r="E27">
-        <v>447339</v>
+        <v>401518</v>
       </c>
       <c r="F27">
-        <v>123032</v>
+        <v>71868</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -5880,10 +5853,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -5892,10 +5865,10 @@
         <v>500000</v>
       </c>
       <c r="E28">
-        <v>447146</v>
+        <v>401501</v>
       </c>
       <c r="F28">
-        <v>120014</v>
+        <v>71846</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -5906,10 +5879,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -5918,10 +5891,10 @@
         <v>500000</v>
       </c>
       <c r="E29">
-        <v>357466</v>
+        <v>311629</v>
       </c>
       <c r="F29">
-        <v>113646</v>
+        <v>68961</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -5935,7 +5908,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>32</v>
@@ -5944,10 +5917,10 @@
         <v>500000</v>
       </c>
       <c r="E30">
-        <v>394365</v>
+        <v>303013</v>
       </c>
       <c r="F30">
-        <v>63600</v>
+        <v>59420</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -5958,10 +5931,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>32</v>
@@ -5970,10 +5943,10 @@
         <v>500000</v>
       </c>
       <c r="E31">
-        <v>394257</v>
+        <v>302279</v>
       </c>
       <c r="F31">
-        <v>122102</v>
+        <v>67917</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -5984,10 +5957,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>32</v>
@@ -5996,10 +5969,10 @@
         <v>500000</v>
       </c>
       <c r="E32">
-        <v>394464</v>
+        <v>302313</v>
       </c>
       <c r="F32">
-        <v>115829</v>
+        <v>67861</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -6010,10 +5983,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -6022,10 +5995,10 @@
         <v>500000</v>
       </c>
       <c r="E33">
-        <v>300668</v>
+        <v>228492</v>
       </c>
       <c r="F33">
-        <v>107885</v>
+        <v>63784</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -6039,7 +6012,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>64</v>
@@ -6048,10 +6021,10 @@
         <v>500000</v>
       </c>
       <c r="E34">
-        <v>288494</v>
+        <v>104802</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>39003</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -6062,10 +6035,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>64</v>
@@ -6074,10 +6047,10 @@
         <v>500000</v>
       </c>
       <c r="E35">
-        <v>287688</v>
+        <v>104884</v>
       </c>
       <c r="F35">
-        <v>116519</v>
+        <v>47741</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -6088,10 +6061,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>64</v>
@@ -6100,10 +6073,10 @@
         <v>500000</v>
       </c>
       <c r="E36">
-        <v>288347</v>
+        <v>104654</v>
       </c>
       <c r="F36">
-        <v>104614</v>
+        <v>39597</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -6114,10 +6087,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>64</v>
@@ -6126,10 +6099,10 @@
         <v>500000</v>
       </c>
       <c r="E37">
-        <v>215641</v>
+        <v>83595</v>
       </c>
       <c r="F37">
-        <v>94471</v>
+        <v>41757</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
